--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H2">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N2">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q2">
-        <v>0.002952408473</v>
+        <v>0.01008743224077778</v>
       </c>
       <c r="R2">
-        <v>0.026571676257</v>
+        <v>0.09078689016700002</v>
       </c>
       <c r="S2">
-        <v>0.002002791144427848</v>
+        <v>0.006682098694839107</v>
       </c>
       <c r="T2">
-        <v>0.002002791144427848</v>
+        <v>0.006682098694839106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H3">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I3">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J3">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.432105</v>
       </c>
       <c r="O3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q3">
-        <v>0.02413622030166666</v>
+        <v>0.02379187861055556</v>
       </c>
       <c r="R3">
-        <v>0.217225982715</v>
+        <v>0.214126907495</v>
       </c>
       <c r="S3">
-        <v>0.01637300824808249</v>
+        <v>0.0157601733738244</v>
       </c>
       <c r="T3">
-        <v>0.01637300824808249</v>
+        <v>0.0157601733738244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H4">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I4">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J4">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.532697</v>
       </c>
       <c r="O4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q4">
-        <v>0.2449292310056666</v>
+        <v>0.2414349247492222</v>
       </c>
       <c r="R4">
-        <v>2.204363079051</v>
+        <v>2.172914322743</v>
       </c>
       <c r="S4">
-        <v>0.1661498059485049</v>
+        <v>0.1599308879650987</v>
       </c>
       <c r="T4">
-        <v>0.1661498059485049</v>
+        <v>0.1599308879650987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I5">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J5">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N5">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q5">
-        <v>0.006433293060333333</v>
+        <v>0.02229862319788889</v>
       </c>
       <c r="R5">
-        <v>0.05789963754299999</v>
+        <v>0.200687608781</v>
       </c>
       <c r="S5">
-        <v>0.004364078510333121</v>
+        <v>0.01477101381310828</v>
       </c>
       <c r="T5">
-        <v>0.004364078510333121</v>
+        <v>0.01477101381310828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I6">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J6">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.432105</v>
       </c>
       <c r="O6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q6">
         <v>0.05259278314277777</v>
@@ -818,10 +818,10 @@
         <v>0.4733350482849999</v>
       </c>
       <c r="S6">
-        <v>0.03567675723140681</v>
+        <v>0.03483841667611686</v>
       </c>
       <c r="T6">
-        <v>0.03567675723140681</v>
+        <v>0.03483841667611686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I7">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J7">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.532697</v>
       </c>
       <c r="O7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q7">
         <v>0.533700379372111</v>
@@ -880,10 +880,10 @@
         <v>4.803303414348999</v>
       </c>
       <c r="S7">
-        <v>0.3620401456503497</v>
+        <v>0.3535328439700675</v>
       </c>
       <c r="T7">
-        <v>0.3620401456503497</v>
+        <v>0.3535328439700675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.339816</v>
       </c>
       <c r="I8">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J8">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N8">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O8">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P8">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q8">
-        <v>0.006614291896</v>
+        <v>0.02292598849866667</v>
       </c>
       <c r="R8">
-        <v>0.059528627064</v>
+        <v>0.206333896488</v>
       </c>
       <c r="S8">
-        <v>0.00448686059436386</v>
+        <v>0.01518659200560093</v>
       </c>
       <c r="T8">
-        <v>0.00448686059436386</v>
+        <v>0.01518659200560093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.339816</v>
       </c>
       <c r="I9">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J9">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.432105</v>
       </c>
       <c r="O9">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P9">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q9">
         <v>0.05407246585333333</v>
@@ -1004,10 +1004,10 @@
         <v>0.48665219268</v>
       </c>
       <c r="S9">
-        <v>0.03668051245578212</v>
+        <v>0.03581858543194852</v>
       </c>
       <c r="T9">
-        <v>0.03668051245578212</v>
+        <v>0.03581858543194852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.339816</v>
       </c>
       <c r="I10">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J10">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.532697</v>
       </c>
       <c r="O10">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P10">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q10">
         <v>0.5487158848613333</v>
@@ -1066,10 +1066,10 @@
         <v>4.938442963751999</v>
       </c>
       <c r="S10">
-        <v>0.372226040216749</v>
+        <v>0.3634793880693958</v>
       </c>
       <c r="T10">
-        <v>0.372226040216749</v>
+        <v>0.3634793880693957</v>
       </c>
     </row>
   </sheetData>
